--- a/Assignment5/ModelStats.xlsx
+++ b/Assignment5/ModelStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\M_A_HW_Git\Assignment5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26813946-F44B-41E9-998A-9BE8464AFEB3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F57876-5B6C-485B-9F7D-BAB69862CB11}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="5" xr2:uid="{F455CCAA-DD2E-425F-BBB8-BF19220F6A59}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="3" xr2:uid="{F455CCAA-DD2E-425F-BBB8-BF19220F6A59}"/>
   </bookViews>
   <sheets>
     <sheet name="Regression" sheetId="1" r:id="rId1"/>
@@ -106,12 +106,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -142,7 +148,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -158,6 +164,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -167,9 +176,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1160,7 +1167,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1173,23 +1180,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="8"/>
       <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1209,13 +1216,13 @@
       <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="11">
         <f>D5/SUM(D4:D5)</f>
         <v>9.1836734693877556E-2</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1">
@@ -1238,7 +1245,7 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -1314,23 +1321,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="8"/>
       <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1356,16 +1363,16 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="6">
         <v>0</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="7">
         <v>29447</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="7">
         <v>1883</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -1379,14 +1386,14 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="7">
         <v>491</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="7">
         <v>273</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -1439,7 +1446,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1452,23 +1459,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="8"/>
       <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1494,16 +1501,16 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="6">
         <v>0</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="7">
         <v>29438</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="7">
         <v>1876</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -1517,14 +1524,14 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="7">
         <v>500</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="7">
         <v>280</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -1576,7 +1583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{790A7E48-E187-47C5-9821-C79A36D3F7FC}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -1590,23 +1597,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="8"/>
       <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1626,22 +1633,22 @@
       <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="11">
         <f>D5/SUM(D4:D5)</f>
         <v>0.19619666048237477</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="6">
         <v>0</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="7">
         <v>29014</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="7">
         <v>1733</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -1655,14 +1662,14 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="7">
         <v>924</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="7">
         <v>423</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -1728,23 +1735,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="8"/>
       <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1770,16 +1777,16 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="6">
         <v>0</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="7">
         <v>29014</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="7">
         <v>1733</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -1793,14 +1800,14 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="7">
         <v>924</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="7">
         <v>423</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -1852,8 +1859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5457ECD-DEB8-4F5D-8E37-764C92C77750}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1866,23 +1873,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="8"/>
       <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1908,16 +1915,16 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="6">
         <v>0</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="7">
         <v>29126</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="7">
         <v>1777</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -1931,14 +1938,14 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="7">
         <v>812</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="7">
         <v>379</v>
       </c>
       <c r="F5" s="4" t="s">
